--- a/document/eProject_Status_Report(V1).xlsx
+++ b/document/eProject_Status_Report(V1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>e P r o j e c t s    S t a t u s    R e p o r t</t>
   </si>
@@ -33,13 +33,25 @@
     <t>Enrollment No.</t>
   </si>
   <si>
+    <t>1448345</t>
+  </si>
+  <si>
     <t>NGUYEN ANH TUAN</t>
+  </si>
+  <si>
+    <t>1455776</t>
   </si>
   <si>
     <t>NGUYEN XUAN THUAN ANH</t>
   </si>
   <si>
+    <t>1449577</t>
+  </si>
+  <si>
     <t>PHU DUNG KHANH</t>
+  </si>
+  <si>
+    <t>1455754</t>
   </si>
   <si>
     <t>Curriculum</t>
@@ -385,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -421,14 +433,11 @@
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="13" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -907,7 +916,9 @@
       <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -938,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -969,7 +980,9 @@
       <c r="C8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1000,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1031,7 +1044,9 @@
       <c r="C10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1061,8 +1076,8 @@
       <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>7</v>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1093,7 +1108,9 @@
       <c r="C12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1120,11 +1137,11 @@
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
-        <v>8</v>
+      <c r="C13" s="19" t="s">
+        <v>12</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>9</v>
+      <c r="D13" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1152,11 +1169,11 @@
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="20" t="s">
-        <v>10</v>
+      <c r="C14" s="19" t="s">
+        <v>14</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>11</v>
+      <c r="D14" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1183,12 +1200,12 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
-        <v>12</v>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>16</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>13</v>
+      <c r="D15" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1215,9 +1232,9 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1244,13 +1261,13 @@
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>15</v>
+      <c r="C17" s="27" t="s">
+        <v>19</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>16</v>
+      <c r="D17" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -1279,10 +1296,10 @@
       <c r="A18" s="11"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>18</v>
+      <c r="D18" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1310,10 +1327,10 @@
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="31" t="s">
-        <v>19</v>
+      <c r="C19" s="30" t="s">
+        <v>23</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>45054.0</v>
       </c>
       <c r="E19" s="11"/>
@@ -1341,11 +1358,11 @@
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="33" t="s">
-        <v>20</v>
+      <c r="B20" s="21"/>
+      <c r="C20" s="32" t="s">
+        <v>24</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>45085.0</v>
       </c>
       <c r="E20" s="11"/>
@@ -1373,9 +1390,9 @@
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="35"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1401,14 +1418,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="36" t="s">
-        <v>21</v>
+      <c r="B22" s="35" t="s">
+        <v>25</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>22</v>
+      <c r="C22" s="36" t="s">
+        <v>26</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>23</v>
+      <c r="D22" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1436,10 +1453,10 @@
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="39" t="s">
-        <v>24</v>
+      <c r="C23" s="38" t="s">
+        <v>28</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="39">
         <v>45064.0</v>
       </c>
       <c r="E23" s="1"/>
@@ -1468,11 +1485,11 @@
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="39" t="s">
-        <v>25</v>
+      <c r="C24" s="38" t="s">
+        <v>29</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>26</v>
+      <c r="D24" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1500,11 +1517,11 @@
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="39" t="s">
-        <v>27</v>
+      <c r="C25" s="38" t="s">
+        <v>31</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>26</v>
+      <c r="D25" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1532,11 +1549,11 @@
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="39" t="s">
-        <v>28</v>
+      <c r="C26" s="38" t="s">
+        <v>32</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>29</v>
+      <c r="D26" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1564,8 +1581,8 @@
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1592,10 +1609,10 @@
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="43" t="s">
-        <v>30</v>
+      <c r="C28" s="42" t="s">
+        <v>34</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1622,10 +1639,10 @@
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="39" t="s">
-        <v>24</v>
+      <c r="C29" s="38" t="s">
+        <v>28</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1652,10 +1669,10 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="39" t="s">
-        <v>25</v>
+      <c r="C30" s="38" t="s">
+        <v>29</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1682,10 +1699,10 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="39" t="s">
-        <v>27</v>
+      <c r="C31" s="38" t="s">
+        <v>31</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1711,11 +1728,11 @@
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="46" t="s">
-        <v>28</v>
+      <c r="B32" s="21"/>
+      <c r="C32" s="45" t="s">
+        <v>32</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1741,9 +1758,9 @@
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="35"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1770,12 +1787,12 @@
     <row r="34" ht="57.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>32</v>
+      <c r="C34" s="47" t="s">
+        <v>36</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -1801,11 +1818,11 @@
     </row>
     <row r="35" ht="65.25" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="50" t="s">
-        <v>33</v>
+      <c r="B35" s="21"/>
+      <c r="C35" s="49" t="s">
+        <v>37</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1999,9 +2016,9 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2141,7 +2158,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="53"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2333,9 +2350,9 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2473,9 +2490,9 @@
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2615,7 +2632,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="52"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
